--- a/TestData/Schuljahre/SCHULJAHR_2016/Noten_2/Notentabelle_12-Gym.xlsx
+++ b/TestData/Schuljahre/SCHULJAHR_2016/Noten_2/Notentabelle_12-Gym.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
   <si>
     <t xml:space="preserve">Noten: Einsendeschluss 10.06.2016</t>
   </si>
@@ -91,6 +91,9 @@
     <t xml:space="preserve">Sp</t>
   </si>
   <si>
+    <t xml:space="preserve">AWT</t>
+  </si>
+  <si>
     <t xml:space="preserve">__Ku</t>
   </si>
   <si>
@@ -109,9 +112,6 @@
     <t xml:space="preserve">__AVE</t>
   </si>
   <si>
-    <t xml:space="preserve">_V_D</t>
-  </si>
-  <si>
     <t xml:space="preserve">_GS</t>
   </si>
   <si>
@@ -157,6 +157,9 @@
     <t xml:space="preserve">Sport</t>
   </si>
   <si>
+    <t xml:space="preserve">Arbeit-Wirtschaft-Technik</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kunst</t>
   </si>
   <si>
@@ -173,9 +176,6 @@
   </si>
   <si>
     <t xml:space="preserve">Φ Alle Fächer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versetzung (Quali)</t>
   </si>
   <si>
     <t xml:space="preserve">Gleichstellungs-vermerk</t>
@@ -332,7 +332,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +383,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDEDCE6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
         <bgColor rgb="FFDEDCE6"/>
       </patternFill>
@@ -442,7 +448,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -519,7 +525,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -527,11 +533,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -560,7 +570,7 @@
       <rgbColor rgb="FFB47804"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF777777"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -619,7 +629,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -633,7 +643,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="1" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="13" style="1" width="7.49"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="19" style="1" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="1" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="7.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="2.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="23" style="1" width="7.49"/>
@@ -647,7 +658,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="2.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="7.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="2.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="37" min="37" style="1" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="38" style="1" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="1" width="11.52"/>
   </cols>
@@ -796,34 +807,34 @@
         <v>22</v>
       </c>
       <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
+      <c r="T6" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="V6" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W6" s="6"/>
       <c r="X6" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE6" s="6"/>
       <c r="AG6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK6" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="AK6" s="6"/>
       <c r="AL6" s="6" t="s">
         <v>30</v>
       </c>
@@ -877,38 +888,38 @@
         <v>44</v>
       </c>
       <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
+      <c r="T7" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="U7" s="11"/>
       <c r="V7" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="11"/>
       <c r="AG7" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH7" s="11"/>
       <c r="AI7" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ7" s="11"/>
-      <c r="AK7" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="AK7" s="10"/>
       <c r="AL7" s="10" t="s">
         <v>52</v>
       </c>
@@ -992,7 +1003,9 @@
       <c r="O9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="18"/>
+      <c r="P9" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="Q9" s="18" t="s">
         <v>62</v>
       </c>
@@ -1000,9 +1013,11 @@
         <v>63</v>
       </c>
       <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="V9" s="19" t="str">
-        <f aca="false" t="array" ref="V9:V9">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W9:AE9,"-",""),"+","")),"")),"0")</f>
+      <c r="T9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" s="20" t="str">
+        <f aca="false" t="array" ref="V9:V9">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W9:AE9,"-",""),"+","")),"")),"00"),"*")</f>
         <v>13</v>
       </c>
       <c r="W9" s="18"/>
@@ -1023,13 +1038,13 @@
       <c r="AG9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AI9" s="20" t="n">
+      <c r="AI9" s="21" t="n">
         <f aca="false" t="array" ref="AI9:AI9">ROUND(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(E9:V9,"-",""),"+","")),"")),2)</f>
         <v>10.67</v>
       </c>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="22"/>
-      <c r="AM9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="23"/>
+      <c r="AM9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
@@ -1071,7 +1086,9 @@
       <c r="O10" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="18"/>
+      <c r="P10" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="Q10" s="18" t="s">
         <v>57</v>
       </c>
@@ -1079,10 +1096,12 @@
         <v>63</v>
       </c>
       <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="V10" s="19" t="e">
-        <f aca="false" t="array" ref="V10:V10">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W10:AE10,"-",""),"+","")),"")),"0")</f>
-        <v>#DIV/0!</v>
+      <c r="T10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="20" t="str">
+        <f aca="false" t="array" ref="V10:V10">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W10:AE10,"-",""),"+","")),"")),"00"),"*")</f>
+        <v>*</v>
       </c>
       <c r="W10" s="18"/>
       <c r="X10" s="18" t="s">
@@ -1102,13 +1121,13 @@
       <c r="AG10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AI10" s="20" t="n">
+      <c r="AI10" s="21" t="n">
         <f aca="false" t="array" ref="AI10:AI10">ROUND(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(E10:V10,"-",""),"+","")),"")),2)</f>
         <v>7.09</v>
       </c>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="23"/>
+      <c r="AM10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
@@ -1150,7 +1169,9 @@
       <c r="O11" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="18"/>
+      <c r="P11" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="Q11" s="18" t="s">
         <v>62</v>
       </c>
@@ -1158,9 +1179,11 @@
         <v>63</v>
       </c>
       <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="V11" s="19" t="str">
-        <f aca="false" t="array" ref="V11:V11">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W11:AE11,"-",""),"+","")),"")),"0")</f>
+      <c r="T11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11" s="20" t="str">
+        <f aca="false" t="array" ref="V11:V11">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W11:AE11,"-",""),"+","")),"")),"00"),"*")</f>
         <v>13</v>
       </c>
       <c r="W11" s="18"/>
@@ -1181,13 +1204,13 @@
       <c r="AG11" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AI11" s="20" t="n">
+      <c r="AI11" s="21" t="n">
         <f aca="false" t="array" ref="AI11:AI11">ROUND(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(E11:V11,"-",""),"+","")),"")),2)</f>
         <v>11.2</v>
       </c>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="22"/>
-      <c r="AM11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
@@ -1229,7 +1252,9 @@
       <c r="O12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="18"/>
+      <c r="P12" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="Q12" s="18" t="s">
         <v>62</v>
       </c>
@@ -1237,9 +1262,11 @@
         <v>5</v>
       </c>
       <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="V12" s="19" t="str">
-        <f aca="false" t="array" ref="V12:V12">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W12:AE12,"-",""),"+","")),"")),"0")</f>
+      <c r="T12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="V12" s="20" t="str">
+        <f aca="false" t="array" ref="V12:V12">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W12:AE12,"-",""),"+","")),"")),"00"),"*")</f>
         <v>12</v>
       </c>
       <c r="W12" s="18"/>
@@ -1260,13 +1287,13 @@
       <c r="AG12" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AI12" s="20" t="n">
+      <c r="AI12" s="21" t="n">
         <f aca="false" t="array" ref="AI12:AI12">ROUND(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(E12:V12,"-",""),"+","")),"")),2)</f>
         <v>7.3</v>
       </c>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="23"/>
+      <c r="AM12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
@@ -1308,7 +1335,9 @@
       <c r="O13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="18"/>
+      <c r="P13" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="Q13" s="18" t="s">
         <v>62</v>
       </c>
@@ -1316,10 +1345,12 @@
         <v>76</v>
       </c>
       <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="V13" s="19" t="str">
-        <f aca="false" t="array" ref="V13:V13">TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W13:AE13,"-",""),"+","")),"")),"0")</f>
-        <v>6</v>
+      <c r="T13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="V13" s="20" t="str">
+        <f aca="false" t="array" ref="V13:V13">IFERROR(TEXT(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(W13:AE13,"-",""),"+","")),"")),"00"),"*")</f>
+        <v>06</v>
       </c>
       <c r="W13" s="18"/>
       <c r="X13" s="18" t="s">
@@ -1339,15 +1370,14 @@
       <c r="AG13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AI13" s="20" t="n">
+      <c r="AI13" s="21" t="n">
         <f aca="false" t="array" ref="AI13:AI13">ROUND(AVERAGE(IFERROR(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(E13:V13,"-",""),"+","")),"")),2)</f>
         <v>5.1</v>
       </c>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="23"/>
+      <c r="AM13" s="23"/>
     </row>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1396,7 +1426,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V9:V13" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -1413,12 +1443,16 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E9:T13 W9:AE13 AG9:AG13" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E9:S13 W9:AE13 AG9:AG13" type="list">
       <formula1>"15,14,13,12,11,10,09,08,07,06,05,04,03,02,01,00,nb,nt,t,*"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AL9:AL13" type="list">
       <formula1>"Erw,RS,HS"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T9:T13" type="none">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
